--- a/documents/new-instructions.xlsx
+++ b/documents/new-instructions.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19304"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_C870B4F71BE170836B02CE998F75CCDC64E19E90" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A591DAFE-5F46-4D6D-B63D-ACD277990533}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\final-project-s18-trusttheprocessor-1\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Instruction</t>
   </si>
@@ -32,9 +36,6 @@
     <t>beq $rd, $rs, N</t>
   </si>
   <si>
-    <t>01000</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -51,13 +52,82 @@
   </si>
   <si>
     <t>$rd = rand(0,1)</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>$r20</t>
+  </si>
+  <si>
+    <t>$r21</t>
+  </si>
+  <si>
+    <t>$r22</t>
+  </si>
+  <si>
+    <t>$r23</t>
+  </si>
+  <si>
+    <t>$r24</t>
+  </si>
+  <si>
+    <t>$r25</t>
+  </si>
+  <si>
+    <t>$r26</t>
+  </si>
+  <si>
+    <t>$r27</t>
+  </si>
+  <si>
+    <t>$r28</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 0</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 1</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 2</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 3</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 4</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 5</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 6</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 7</t>
+  </si>
+  <si>
+    <t>Capacitive sensor 8</t>
+  </si>
+  <si>
+    <t>$r29</t>
+  </si>
+  <si>
+    <t>[31:9] zeros, [8:0] random number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +157,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -182,11 +258,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -214,6 +312,18 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,22 +637,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -555,46 +666,124 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/new-instructions.xlsx
+++ b/documents/new-instructions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -58,19 +58,7 @@
     <t xml:space="preserve">[31:9] zeros, [8:0] random number</t>
   </si>
   <si>
-    <t xml:space="preserve">rand $rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$rd = rand(0,1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">led $rd, $rs</t>
+    <t xml:space="preserve">led $rs, $rt</t>
   </si>
   <si>
     <t xml:space="preserve">01011</t>
@@ -402,10 +390,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,45 +454,29 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/documents/new-instructions.xlsx
+++ b/documents/new-instructions.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\final-project-s18-trusttheprocessor-1\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DhruvKPatel/ECE350/final-project-s18-trusttheprocessor-1/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="996"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Instruction</t>
   </si>
@@ -62,9 +68,6 @@
     <t>[31:9] zeros, [8:0] random number</t>
   </si>
   <si>
-    <t>led $rs, $rt</t>
-  </si>
-  <si>
     <t>01011</t>
   </si>
   <si>
@@ -78,12 +81,18 @@
   </si>
   <si>
     <t>$rd = sensorvalue($rs)</t>
+  </si>
+  <si>
+    <t>led $rd, $rs</t>
+  </si>
+  <si>
+    <t>Note: capacitive sensors read one value every 100,000 cycles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -255,6 +264,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,23 +615,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875"/>
-    <col min="7" max="7" width="33.85546875"/>
-    <col min="8" max="1025" width="8.85546875"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -639,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
@@ -659,39 +669,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/documents/new-instructions.xlsx
+++ b/documents/new-instructions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Instruction</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Register</t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
     <t>beq $rd, $rs, N</t>
   </si>
   <si>
@@ -87,6 +84,225 @@
   </si>
   <si>
     <t>Note: capacitive sensors read one value every 100,000 cycles</t>
+  </si>
+  <si>
+    <t>$r0</t>
+  </si>
+  <si>
+    <t>$r1</t>
+  </si>
+  <si>
+    <t>$r2</t>
+  </si>
+  <si>
+    <t>$r3</t>
+  </si>
+  <si>
+    <t>$r4</t>
+  </si>
+  <si>
+    <t>$r5</t>
+  </si>
+  <si>
+    <t>$r6</t>
+  </si>
+  <si>
+    <t>$r7</t>
+  </si>
+  <si>
+    <t>$r8</t>
+  </si>
+  <si>
+    <t>$r9</t>
+  </si>
+  <si>
+    <t>$r10</t>
+  </si>
+  <si>
+    <t>$r11</t>
+  </si>
+  <si>
+    <t>$r12</t>
+  </si>
+  <si>
+    <t>$r13</t>
+  </si>
+  <si>
+    <t>$r14</t>
+  </si>
+  <si>
+    <t>$r15</t>
+  </si>
+  <si>
+    <t>$r16</t>
+  </si>
+  <si>
+    <t>$r17</t>
+  </si>
+  <si>
+    <t>$r18</t>
+  </si>
+  <si>
+    <t>$r19</t>
+  </si>
+  <si>
+    <t>$r20</t>
+  </si>
+  <si>
+    <t>$r21</t>
+  </si>
+  <si>
+    <t>$r22</t>
+  </si>
+  <si>
+    <t>$r23</t>
+  </si>
+  <si>
+    <t>$r24</t>
+  </si>
+  <si>
+    <t>$r25</t>
+  </si>
+  <si>
+    <t>$r26</t>
+  </si>
+  <si>
+    <t>$r27</t>
+  </si>
+  <si>
+    <t>$r28</t>
+  </si>
+  <si>
+    <t>$r30</t>
+  </si>
+  <si>
+    <t>$r31</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>function return value</t>
+  </si>
+  <si>
+    <t>function argument</t>
+  </si>
+  <si>
+    <t>stack pointer (starts at 0)</t>
+  </si>
+  <si>
+    <t>temporary variables (need not preserve)</t>
+  </si>
+  <si>
+    <t>function variables (preserve before calling)</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>$v0</t>
+  </si>
+  <si>
+    <t>$v1</t>
+  </si>
+  <si>
+    <t>$a0</t>
+  </si>
+  <si>
+    <t>$a1</t>
+  </si>
+  <si>
+    <t>$a2</t>
+  </si>
+  <si>
+    <t>$a3</t>
+  </si>
+  <si>
+    <t>$t0</t>
+  </si>
+  <si>
+    <t>$t1</t>
+  </si>
+  <si>
+    <t>$t2</t>
+  </si>
+  <si>
+    <t>$t3</t>
+  </si>
+  <si>
+    <t>$t4</t>
+  </si>
+  <si>
+    <t>$t5</t>
+  </si>
+  <si>
+    <t>$t6</t>
+  </si>
+  <si>
+    <t>$t7</t>
+  </si>
+  <si>
+    <t>$t8</t>
+  </si>
+  <si>
+    <t>$t9</t>
+  </si>
+  <si>
+    <t>$t10</t>
+  </si>
+  <si>
+    <t>$t11</t>
+  </si>
+  <si>
+    <t>$t12</t>
+  </si>
+  <si>
+    <t>$s0</t>
+  </si>
+  <si>
+    <t>$s1</t>
+  </si>
+  <si>
+    <t>$s2</t>
+  </si>
+  <si>
+    <t>$s3</t>
+  </si>
+  <si>
+    <t>$s4</t>
+  </si>
+  <si>
+    <t>$s5</t>
+  </si>
+  <si>
+    <t>$s6</t>
+  </si>
+  <si>
+    <t>$s7</t>
+  </si>
+  <si>
+    <t>$sp</t>
+  </si>
+  <si>
+    <t>$ra</t>
+  </si>
+  <si>
+    <t>$rm</t>
+  </si>
+  <si>
+    <t>$rstatus</t>
+  </si>
+  <si>
+    <t>exception status</t>
+  </si>
+  <si>
+    <t>return address</t>
   </si>
 </sst>
 </file>
@@ -125,12 +341,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFB4C6E7"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,90 +355,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -231,41 +391,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,91 +764,432 @@
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.83203125" style="2"/>
     <col min="4" max="4" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+      <c r="F19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/new-instructions.xlsx
+++ b/documents/new-instructions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DhruvKPatel/ECE350/final-project-s18-trusttheprocessor-1/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtran/Documents/final-project-s18-trusttheprocessor-1/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB850E-F822-6143-AC4D-02D2C97D4A4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -308,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,9 +393,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,6 +402,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,423 +772,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>90</v>
       </c>
     </row>

--- a/documents/new-instructions.xlsx
+++ b/documents/new-instructions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtran/Documents/final-project-s18-trusttheprocessor-1/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\final-project-s18-trusttheprocessor-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB850E-F822-6143-AC4D-02D2C97D4A4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -309,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -753,25 +752,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -796,7 +795,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -819,7 +818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -842,7 +841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -865,7 +864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
@@ -876,7 +875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -893,7 +892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
@@ -904,7 +903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="F8" s="8" t="s">
         <v>24</v>
@@ -916,7 +915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
@@ -927,7 +926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
@@ -938,7 +937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
@@ -949,7 +948,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
@@ -960,7 +959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
@@ -971,7 +970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
@@ -982,7 +981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="8" t="s">
         <v>31</v>
       </c>
@@ -993,7 +992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="F19" s="8" t="s">
         <v>35</v>
@@ -1038,7 +1037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
         <v>36</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F26" s="8" t="s">
         <v>42</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F28" s="8" t="s">
         <v>44</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F30" s="8" t="s">
         <v>46</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F31" s="8" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F32" s="8" t="s">
         <v>47</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" s="8" t="s">
         <v>48</v>
       </c>
